--- a/extra/adsdk/template.xlsx
+++ b/extra/adsdk/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="adplaces" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="41">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,21 @@
     <t>interstitial</t>
   </si>
   <si>
+    <t>main_banner_bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt_outer_place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfp</t>
+  </si>
+  <si>
     <t>banner</t>
   </si>
   <si>
@@ -155,17 +170,6 @@
   </si>
   <si>
     <t>pid_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pidname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admob</t>
-  </si>
-  <si>
-    <t>capub-abc-154223</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -544,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -561,24 +565,24 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -595,12 +599,12 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -662,10 +666,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -687,7 +691,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -704,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -712,19 +716,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -738,7 +742,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -746,19 +750,170 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>39</v>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/extra/adsdk/template.xlsx
+++ b/extra/adsdk/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="adplaces" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,144 +33,121 @@
     <t>percent</t>
   </si>
   <si>
+    <t>sdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告SDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告SDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告加载模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告展示最大次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告展示的比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_NULL_VALUE</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>interstitial</t>
+  </si>
+  <si>
+    <t>ecpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>ECPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notnull</t>
+  </si>
+  <si>
+    <t>as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>是否自动切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>con</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告SDK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告位ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告SDK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告位ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告加载模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告展示最大次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告展示的比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT_NULL_VALUE</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>interstitial</t>
-  </si>
-  <si>
-    <t>main_banner_bottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_outer_place</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dfp</t>
-  </si>
-  <si>
-    <t>banner</t>
-  </si>
-  <si>
-    <t>ecpm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>ECPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notnull</t>
-  </si>
-  <si>
-    <t>as</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>是否自动切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pid_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -521,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -548,66 +525,63 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
@@ -666,10 +640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -685,235 +659,67 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -961,55 +767,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1054,60 +860,60 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/extra/adsdk/template.xlsx
+++ b/extra/adsdk/template.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="adplaces" sheetId="4" r:id="rId1"/>
-    <sheet name="dfp" sheetId="1" r:id="rId2"/>
-    <sheet name="facebook" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="admob" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="placelist" sheetId="1" r:id="rId2"/>
+    <sheet name="adids" sheetId="5" r:id="rId3"/>
+    <sheet name="gtconfig" sheetId="6" r:id="rId4"/>
+    <sheet name="adrefs" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,94 +50,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告SDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告加载模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告展示最大次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告展示的比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>ecpm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告SDK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告位ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告SDK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告位ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告加载模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告展示最大次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告展示的比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT_NULL_VALUE</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>interstitial</t>
-  </si>
-  <si>
-    <t>ecpm</t>
+  </si>
+  <si>
+    <t>ECPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notnull</t>
+  </si>
+  <si>
+    <t>as</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>ECPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notnull</t>
-  </si>
-  <si>
-    <t>as</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,14 +114,149 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>con</t>
+    <t>dspmob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wemob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dspmob配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wemob配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admob配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfp配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>gt开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次gt延迟时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大弹出次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒体源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次安装时间控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否展示底层activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner和native弹出比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["non-organic","Non-organic"]</t>
+  </si>
+  <si>
+    <t>别名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +270,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.8"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,10 +304,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -525,90 +652,59 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
@@ -623,7 +719,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:D2">
       <formula1>"string,int,object,float"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:D5">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:D10">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -635,15 +731,16 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -651,7 +748,8 @@
     <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="6" width="58.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -682,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -690,45 +788,51 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C31">
       <formula1>"banner,interstitial,native,reward"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B36">
       <formula1>"fb,admob,dfp,adx,applovin,wemob"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D35">
@@ -740,6 +844,12 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:E3">
       <formula1>"notnull,null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B14">
+      <formula1>"fb,admob,dfp,adx,applovin,wemob,mopub,inmobi,inneractive"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
+      <formula1>"dspmob,fb,admob,dfp,adx,applovin,wemob,mopub,inmobi,inneractive"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -749,45 +859,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,32 +917,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:D3">
-      <formula1>"NOT_NULL_VALUE,NULL_VALUE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:D2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:E3">
+      <formula1>"notnull,null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:E2">
       <formula1>"string,int,object,float"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C21">
-      <formula1>"banner,interstitial,native,reward"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B37">
-      <formula1>"fb,admob,dfp,adx,applovin,wemob"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -841,32 +950,243 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:L2">
+      <formula1>"string,int,object,float"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:L3">
+      <formula1>"notnull,null"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -874,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -899,37 +1219,26 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>"fb,admob,dfp,adx,applovin,wemob"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"banner,interstitial,native,reward"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:D3">
-      <formula1>"NOT_NULL_VALUE,NULL_VALUE"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:D2">
       <formula1>"string,int,object,float"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:D3">
+      <formula1>"notnull,null"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/extra/adsdk/template.xlsx
+++ b/extra/adsdk/template.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="adplaces" sheetId="4" r:id="rId1"/>
     <sheet name="placelist" sheetId="1" r:id="rId2"/>
-    <sheet name="adids" sheetId="5" r:id="rId3"/>
-    <sheet name="gtconfig" sheetId="6" r:id="rId4"/>
-    <sheet name="adrefs" sheetId="7" r:id="rId5"/>
+    <sheet name="adids" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="gtconfig" sheetId="6" state="hidden" r:id="rId4"/>
+    <sheet name="adrefs" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,14 @@
   </si>
   <si>
     <t>别名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nt_outer_place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lt_outer_place</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -862,7 +870,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -952,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1164,80 +1172,49 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"string,int,object,float"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
       <formula1>"notnull,null"</formula1>
     </dataValidation>
   </dataValidations>

--- a/extra/adsdk/template.xlsx
+++ b/extra/adsdk/template.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,44 @@
   </si>
   <si>
     <t>lt_outer_place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ide</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否隐藏广告位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +329,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -330,6 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -631,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -644,9 +691,10 @@
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,8 +710,11 @@
       <c r="E1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -679,8 +730,11 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -696,8 +750,11 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -713,14 +770,17 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B31">
       <formula1>"con,seq,ran"</formula1>
     </dataValidation>
@@ -731,11 +791,14 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:F3">
       <formula1>"notnull,null"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E17">
       <formula1>",0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F16">
+      <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/extra/adsdk/template.xlsx
+++ b/extra/adsdk/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="adplaces" sheetId="4" r:id="rId1"/>
@@ -261,23 +261,6 @@
   </si>
   <si>
     <r>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ide</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>i</t>
     </r>
     <r>
@@ -294,7 +277,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否隐藏广告位</t>
+    <t>show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否显示广告位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,20 +668,20 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -711,10 +698,10 @@
         <v>21</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -731,10 +718,10 @@
         <v>22</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -754,7 +741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -774,13 +761,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B31">
       <formula1>"con,seq,ran"</formula1>
     </dataValidation>
@@ -797,8 +784,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E17">
       <formula1>",0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F16">
       <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -814,16 +804,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -840,7 +830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -857,7 +847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -874,7 +864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -891,10 +881,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E16" s="2"/>
     </row>
   </sheetData>
@@ -936,15 +926,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -958,7 +948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -972,7 +962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -986,7 +976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1000,7 +990,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
     </row>
@@ -1027,17 +1017,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1075,7 +1065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1113,7 +1103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1151,7 +1141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
@@ -1190,7 +1180,7 @@
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1241,32 +1231,32 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>61</v>
       </c>
